--- a/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
+++ b/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/Species Biomass Weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D650B9B-C98D-3C4F-A629-5101279F768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A17A44-A104-DC48-80AA-E33A12E732B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{FAAE5483-3841-C24C-9C0E-AC92270D4489}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Halopteris filicina</t>
   </si>
   <si>
-    <t>Hrydoliton farinosum</t>
-  </si>
-  <si>
     <t>Perforatus perforatus</t>
   </si>
   <si>
@@ -94,10 +91,13 @@
     <t>Halopteris scoparia</t>
   </si>
   <si>
-    <t>Peyssonelia squamaria</t>
-  </si>
-  <si>
     <t>Anadyomene stellata</t>
+  </si>
+  <si>
+    <t>Peyssonnelia squamaria</t>
+  </si>
+  <si>
+    <t>Hydroliton farinosum</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913B6635-3ABC-784F-B671-78C772F617A3}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,12 +475,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>2.53E-2</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>6.2100000000000002E-2</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>2.1899999999999999E-2</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.3693</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>0.9909</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0.56840000000000002</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>0.1028</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>0.1085</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>0.1835</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0.65169999999999995</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0.34820000000000001</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.4793</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>1.1984999999999999</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>0.80149999999999999</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>0.23019999999999999</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>4.4999999999999998E-2</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>6.5799999999999997E-2</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>8.2600000000000007E-2</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>0.79590000000000005</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>0.46311999999999998</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
         <v>0.24393000000000001</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
         <v>0.29430000000000001</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1">
         <v>0.38479999999999998</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1">
         <v>0.27529999999999999</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
         <v>0.1067</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <v>6.1899999999999997E-2</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1">
         <v>0.2175</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1">
         <v>0.61099999999999999</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1">
         <v>0.44450000000000001</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1">
         <v>0.8871</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1">
         <v>0.18859000000000001</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
         <v>0.28919</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1">
         <v>0.28120000000000001</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <v>2.1070000000000002</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <v>2.6305999999999998</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <v>1.8154999999999999</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
         <v>0.28960000000000002</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
         <v>0.66110000000000002</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
         <v>0.32890000000000003</v>

--- a/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
+++ b/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/Species Biomass Weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A17A44-A104-DC48-80AA-E33A12E732B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CB44E-D96C-264F-BB53-356E57AEB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{FAAE5483-3841-C24C-9C0E-AC92270D4489}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
   <si>
     <t>Species</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>Hydroliton farinosum</t>
+  </si>
+  <si>
+    <t>Cladophora sp.</t>
+  </si>
+  <si>
+    <t>Parvaucalis parvulus</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>Pseudolithoderma adriaticum</t>
+  </si>
+  <si>
+    <t>Clathrina clathrus</t>
+  </si>
+  <si>
+    <t>Schizoporella grimaldii</t>
+  </si>
+  <si>
+    <t>Bugula neritina</t>
+  </si>
+  <si>
+    <t>Celleporina caminata</t>
+  </si>
+  <si>
+    <t>Lima lima</t>
   </si>
 </sst>
 </file>
@@ -458,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913B6635-3ABC-784F-B671-78C772F617A3}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,6 +935,249 @@
       </c>
       <c r="B55" s="1">
         <v>0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1">
+        <f>18.3875-17.8245</f>
+        <v>0.56299999999999883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1">
+        <f>21.7615-21.4852</f>
+        <v>0.27630000000000265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1">
+        <f>20.5396-20.2173</f>
+        <v>0.32229999999999848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1">
+        <f>(0.3224-0.271)/3</f>
+        <v>1.7133333333333334E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="1">
+        <f>(0.3224-0.271)/3</f>
+        <v>1.7133333333333334E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="1">
+        <f>(0.3224-0.271)/3</f>
+        <v>1.7133333333333334E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1">
+        <f>(27.3764-23.6196)/3</f>
+        <v>1.2522666666666673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1">
+        <f>(27.3764-23.6196)/3</f>
+        <v>1.2522666666666673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <f>(27.3764-23.6196)/3</f>
+        <v>1.2522666666666673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1">
+        <f>(3.3206-0.335)/3</f>
+        <v>0.99520000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="1">
+        <f>(3.3206-0.335)/3</f>
+        <v>0.99520000000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1">
+        <f>(3.3206-0.335)/3</f>
+        <v>0.99520000000000008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1">
+        <f>(0.712-0.3361)/3</f>
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1">
+        <f>(0.712-0.3361)/3</f>
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1">
+        <f>(0.712-0.3361)/3</f>
+        <v>0.12529999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1">
+        <f>2.2803-0.154</f>
+        <v>2.1263000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="1">
+        <f>0.9175-0.1015</f>
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1">
+        <f>0.7845-0.3142</f>
+        <v>0.4703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="1">
+        <f>0.3046-0.1002</f>
+        <v>0.20439999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1">
+        <f>0.222-0.157</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="1">
+        <f>0.2323-0.1754</f>
+        <v>5.6900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="1">
+        <f>(0.3733-0.2232)/3</f>
+        <v>5.0033333333333339E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="1">
+        <f>(0.3733-0.2232)/3</f>
+        <v>5.0033333333333339E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="1">
+        <f>(0.3733-0.2232)/3</f>
+        <v>5.0033333333333339E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1">
+        <f>24.882-23.6931</f>
+        <v>1.1889000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="1">
+        <f>24.882-23.6931</f>
+        <v>1.1889000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="1">
+        <f>24.882-23.6931</f>
+        <v>1.1889000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
+++ b/Data/4. Visual census/Species Biomass Weight/Relationship biomass – cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/Species Biomass Weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20CB44E-D96C-264F-BB53-356E57AEB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C25AC7-1DA8-F946-AE06-52468CD0C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{FAAE5483-3841-C24C-9C0E-AC92270D4489}"/>
   </bookViews>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913B6635-3ABC-784F-B671-78C772F617A3}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +498,7 @@
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -513,7 +514,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -521,7 +522,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -529,15 +530,16 @@
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.3693</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -545,7 +547,7 @@
         <v>0.9909</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -553,7 +555,7 @@
         <v>0.56840000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -561,7 +563,7 @@
         <v>0.1028</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -569,7 +571,7 @@
         <v>0.1085</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -577,7 +579,7 @@
         <v>0.1835</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -585,7 +587,7 @@
         <v>0.65169999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -593,7 +595,7 @@
         <v>0.34820000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -601,7 +603,7 @@
         <v>0.4793</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +611,7 @@
         <v>0.71160000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -617,7 +619,7 @@
         <v>1.7615000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -625,7 +627,7 @@
         <v>0.79969999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -633,7 +635,7 @@
         <v>1.1984999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -641,7 +643,7 @@
         <v>0.80149999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,7 +651,7 @@
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -657,7 +659,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,7 +667,7 @@
         <v>6.5799999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -673,7 +675,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -681,7 +683,7 @@
         <v>0.79590000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -689,7 +691,7 @@
         <v>0.46311999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -697,7 +699,7 @@
         <v>0.24393000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -705,7 +707,7 @@
         <v>0.29430000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -713,7 +715,7 @@
         <v>0.38479999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -721,7 +723,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -729,7 +731,7 @@
         <v>0.1067</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -737,7 +739,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -745,15 +747,16 @@
         <v>0.2175</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -761,7 +764,7 @@
         <v>0.44450000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -769,7 +772,7 @@
         <v>0.8871</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -777,7 +780,7 @@
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,7 +788,7 @@
         <v>0.30919999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -793,7 +796,7 @@
         <v>0.34350000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -801,7 +804,7 @@
         <v>0.18859000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -809,7 +812,7 @@
         <v>0.28919</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -817,7 +820,7 @@
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -825,7 +828,7 @@
         <v>0.1817</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -833,7 +836,7 @@
         <v>0.34339999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
@@ -841,7 +844,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -849,7 +852,7 @@
         <v>2.1070000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -857,7 +860,7 @@
         <v>2.6305999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -865,7 +868,7 @@
         <v>1.8154999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -873,13 +876,14 @@
         <v>0.61350000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="1">
         <v>0.38579999999999998</v>
       </c>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
